--- a/OnBoard/output/trust/catch_sample/CatchSample_data.xlsx
+++ b/OnBoard/output/trust/catch_sample/CatchSample_data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1594"/>
+  <dimension ref="A1:K1593"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30838,7 +30838,7 @@
       </c>
       <c r="E709" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="F709">
@@ -30881,7 +30881,7 @@
       </c>
       <c r="E710" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>SOLEAEG</t>
         </is>
       </c>
       <c r="F710">
@@ -30919,7 +30919,7 @@
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E711" t="inlineStr">
@@ -30967,7 +30967,7 @@
       </c>
       <c r="E712" t="inlineStr">
         <is>
-          <t>SOLEAEG</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F712">
@@ -31000,17 +31000,17 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E713" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>SPARAUR</t>
         </is>
       </c>
       <c r="F713">
@@ -31053,7 +31053,7 @@
       </c>
       <c r="E714" t="inlineStr">
         <is>
-          <t>SPARAUR</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F714">
@@ -31096,7 +31096,7 @@
       </c>
       <c r="E715" t="inlineStr">
         <is>
-          <t>LITHMOR</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F715">
@@ -31139,7 +31139,7 @@
       </c>
       <c r="E716" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F716">
@@ -31182,7 +31182,7 @@
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEIMP</t>
         </is>
       </c>
       <c r="F717">
@@ -31225,7 +31225,7 @@
       </c>
       <c r="E718" t="inlineStr">
         <is>
-          <t>SOLEIMP</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F718">
@@ -31263,12 +31263,12 @@
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E719" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F719">
@@ -31311,7 +31311,7 @@
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F720">
@@ -31354,7 +31354,7 @@
       </c>
       <c r="E721" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F721">
@@ -31397,7 +31397,7 @@
       </c>
       <c r="E722" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F722">
@@ -31440,7 +31440,7 @@
       </c>
       <c r="E723" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>DIPLANN</t>
         </is>
       </c>
       <c r="F723">
@@ -31483,7 +31483,7 @@
       </c>
       <c r="E724" t="inlineStr">
         <is>
-          <t>DIPLANN</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F724">
@@ -31526,7 +31526,7 @@
       </c>
       <c r="E725" t="inlineStr">
         <is>
-          <t>LITHMOR</t>
+          <t>SPARAUR</t>
         </is>
       </c>
       <c r="F725">
@@ -31569,7 +31569,7 @@
       </c>
       <c r="E726" t="inlineStr">
         <is>
-          <t>SPARAUR</t>
+          <t>SOLEIMP</t>
         </is>
       </c>
       <c r="F726">
@@ -31612,7 +31612,7 @@
       </c>
       <c r="E727" t="inlineStr">
         <is>
-          <t>SOLEIMP</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F727">
@@ -31655,7 +31655,7 @@
       </c>
       <c r="E728" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F728">
@@ -31693,12 +31693,12 @@
       </c>
       <c r="D729" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E729" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F729">
@@ -31741,7 +31741,7 @@
       </c>
       <c r="E730" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F730">
@@ -31784,7 +31784,7 @@
       </c>
       <c r="E731" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SOLEAEG</t>
         </is>
       </c>
       <c r="F731">
@@ -31817,17 +31817,17 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D732" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E732" t="inlineStr">
         <is>
-          <t>SOLEAEG</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F732">
@@ -31870,7 +31870,7 @@
       </c>
       <c r="E733" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F733">
@@ -31913,7 +31913,7 @@
       </c>
       <c r="E734" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F734">
@@ -31956,7 +31956,7 @@
       </c>
       <c r="E735" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F735">
@@ -31999,7 +31999,7 @@
       </c>
       <c r="E736" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MULLBAR</t>
         </is>
       </c>
       <c r="F736">
@@ -32042,7 +32042,7 @@
       </c>
       <c r="E737" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>TRACMED</t>
         </is>
       </c>
       <c r="F737">
@@ -32085,7 +32085,7 @@
       </c>
       <c r="E738" t="inlineStr">
         <is>
-          <t>TRACMED</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F738">
@@ -32128,7 +32128,7 @@
       </c>
       <c r="E739" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F739">
@@ -32171,7 +32171,7 @@
       </c>
       <c r="E740" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F740">
@@ -32209,12 +32209,12 @@
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E741" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F741">
@@ -32257,7 +32257,7 @@
       </c>
       <c r="E742" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F742">
@@ -32300,7 +32300,7 @@
       </c>
       <c r="E743" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F743">
@@ -32343,7 +32343,7 @@
       </c>
       <c r="E744" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F744">
@@ -32386,7 +32386,7 @@
       </c>
       <c r="E745" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F745">
@@ -32429,7 +32429,7 @@
       </c>
       <c r="E746" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F746">
@@ -32472,7 +32472,7 @@
       </c>
       <c r="E747" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F747">
@@ -32500,12 +32500,12 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D748" t="inlineStr">
@@ -32515,7 +32515,7 @@
       </c>
       <c r="E748" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F748">
@@ -32558,7 +32558,7 @@
       </c>
       <c r="E749" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F749">
@@ -32601,7 +32601,7 @@
       </c>
       <c r="E750" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F750">
@@ -32644,7 +32644,7 @@
       </c>
       <c r="E751" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F751">
@@ -32687,7 +32687,7 @@
       </c>
       <c r="E752" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F752">
@@ -32730,7 +32730,7 @@
       </c>
       <c r="E753" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F753">
@@ -32773,7 +32773,7 @@
       </c>
       <c r="E754" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F754">
@@ -32816,7 +32816,7 @@
       </c>
       <c r="E755" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F755">
@@ -32854,12 +32854,12 @@
       </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E756" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F756">
@@ -32902,7 +32902,7 @@
       </c>
       <c r="E757" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F757">
@@ -32945,7 +32945,7 @@
       </c>
       <c r="E758" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F758">
@@ -32988,7 +32988,7 @@
       </c>
       <c r="E759" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SPICMAE</t>
         </is>
       </c>
       <c r="F759">
@@ -33031,7 +33031,7 @@
       </c>
       <c r="E760" t="inlineStr">
         <is>
-          <t>SPICMAE</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F760">
@@ -33074,7 +33074,7 @@
       </c>
       <c r="E761" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MONOHIS</t>
         </is>
       </c>
       <c r="F761">
@@ -33117,7 +33117,7 @@
       </c>
       <c r="E762" t="inlineStr">
         <is>
-          <t>MONOHIS</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F762">
@@ -33160,7 +33160,7 @@
       </c>
       <c r="E763" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F763">
@@ -33203,7 +33203,7 @@
       </c>
       <c r="E764" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F764">
@@ -33246,7 +33246,7 @@
       </c>
       <c r="E765" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F765">
@@ -33284,12 +33284,12 @@
       </c>
       <c r="D766" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E766" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F766">
@@ -33327,7 +33327,7 @@
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E767" t="inlineStr">
@@ -33375,7 +33375,7 @@
       </c>
       <c r="E768" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F768">
@@ -33408,17 +33408,17 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E769" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F769">
@@ -33461,7 +33461,7 @@
       </c>
       <c r="E770" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F770">
@@ -33504,7 +33504,7 @@
       </c>
       <c r="E771" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F771">
@@ -33547,7 +33547,7 @@
       </c>
       <c r="E772" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F772">
@@ -33590,7 +33590,7 @@
       </c>
       <c r="E773" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F773">
@@ -33633,7 +33633,7 @@
       </c>
       <c r="E774" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F774">
@@ -33676,7 +33676,7 @@
       </c>
       <c r="E775" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F775">
@@ -33719,7 +33719,7 @@
       </c>
       <c r="E776" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F776">
@@ -33757,12 +33757,12 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E777" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F777">
@@ -33805,7 +33805,7 @@
       </c>
       <c r="E778" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F778">
@@ -33848,7 +33848,7 @@
       </c>
       <c r="E779" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F779">
@@ -33891,7 +33891,7 @@
       </c>
       <c r="E780" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F780">
@@ -33934,7 +33934,7 @@
       </c>
       <c r="E781" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F781">
@@ -33977,7 +33977,7 @@
       </c>
       <c r="E782" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>ALLOMED</t>
         </is>
       </c>
       <c r="F782">
@@ -34020,7 +34020,7 @@
       </c>
       <c r="E783" t="inlineStr">
         <is>
-          <t>ALLOMED</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F783">
@@ -34063,7 +34063,7 @@
       </c>
       <c r="E784" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F784">
@@ -34106,7 +34106,7 @@
       </c>
       <c r="E785" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F785">
@@ -34149,7 +34149,7 @@
       </c>
       <c r="E786" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F786">
@@ -34187,12 +34187,12 @@
       </c>
       <c r="D787" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E787" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F787">
@@ -34230,12 +34230,12 @@
       </c>
       <c r="D788" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E788" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F788">
@@ -34273,7 +34273,7 @@
       </c>
       <c r="D789" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E789" t="inlineStr">
@@ -34306,12 +34306,12 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>SLO</t>
+          <t>ITA17</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>45bis</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D790" t="inlineStr">
@@ -34321,7 +34321,7 @@
       </c>
       <c r="E790" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F790">
@@ -34364,7 +34364,7 @@
       </c>
       <c r="E791" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F791">
@@ -34407,7 +34407,7 @@
       </c>
       <c r="E792" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F792">
@@ -34450,7 +34450,7 @@
       </c>
       <c r="E793" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>MULLBAR</t>
         </is>
       </c>
       <c r="F793">
@@ -34493,7 +34493,7 @@
       </c>
       <c r="E794" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F794">
@@ -34536,7 +34536,7 @@
       </c>
       <c r="E795" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GADUMER</t>
         </is>
       </c>
       <c r="F795">
@@ -34579,7 +34579,7 @@
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t>GADUMER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F796">
@@ -34617,12 +34617,12 @@
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E797" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F797">
@@ -34665,7 +34665,7 @@
       </c>
       <c r="E798" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F798">
@@ -34708,7 +34708,7 @@
       </c>
       <c r="E799" t="inlineStr">
         <is>
-          <t>TRISCAP</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F799">
@@ -34751,7 +34751,7 @@
       </c>
       <c r="E800" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F800">
@@ -34794,7 +34794,7 @@
       </c>
       <c r="E801" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F801">
@@ -34837,7 +34837,7 @@
       </c>
       <c r="E802" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PENAZTC</t>
         </is>
       </c>
       <c r="F802">
@@ -34880,7 +34880,7 @@
       </c>
       <c r="E803" t="inlineStr">
         <is>
-          <t>PENAZTC</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F803">
@@ -34923,7 +34923,7 @@
       </c>
       <c r="E804" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F804">
@@ -34966,7 +34966,7 @@
       </c>
       <c r="E805" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>LOLIVUL</t>
         </is>
       </c>
       <c r="F805">
@@ -35004,12 +35004,12 @@
       </c>
       <c r="D806" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E806" t="inlineStr">
         <is>
-          <t>LOLIVUL</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F806">
@@ -35047,7 +35047,7 @@
       </c>
       <c r="D807" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E807" t="inlineStr">
@@ -35090,12 +35090,12 @@
       </c>
       <c r="D808" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E808" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F808">
@@ -35138,7 +35138,7 @@
       </c>
       <c r="E809" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F809">
@@ -35181,7 +35181,7 @@
       </c>
       <c r="E810" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>LOLIVUL</t>
         </is>
       </c>
       <c r="F810">
@@ -35219,12 +35219,12 @@
       </c>
       <c r="D811" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E811" t="inlineStr">
         <is>
-          <t>LOLIVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F811">
@@ -35267,7 +35267,7 @@
       </c>
       <c r="E812" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F812">
@@ -35300,17 +35300,17 @@
       </c>
       <c r="C813" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D813" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E813" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F813">
@@ -35353,7 +35353,7 @@
       </c>
       <c r="E814" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F814">
@@ -35396,7 +35396,7 @@
       </c>
       <c r="E815" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F815">
@@ -35439,7 +35439,7 @@
       </c>
       <c r="E816" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F816">
@@ -35482,7 +35482,7 @@
       </c>
       <c r="E817" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F817">
@@ -35525,7 +35525,7 @@
       </c>
       <c r="E818" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F818">
@@ -35568,7 +35568,7 @@
       </c>
       <c r="E819" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="F819">
@@ -35611,7 +35611,7 @@
       </c>
       <c r="E820" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F820">
@@ -35654,7 +35654,7 @@
       </c>
       <c r="E821" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F821">
@@ -35692,7 +35692,7 @@
       </c>
       <c r="D822" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E822" t="inlineStr">
@@ -35740,7 +35740,7 @@
       </c>
       <c r="E823" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F823">
@@ -35783,7 +35783,7 @@
       </c>
       <c r="E824" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F824">
@@ -35826,7 +35826,7 @@
       </c>
       <c r="E825" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F825">
@@ -35869,7 +35869,7 @@
       </c>
       <c r="E826" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F826">
@@ -35912,7 +35912,7 @@
       </c>
       <c r="E827" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>GADUMER</t>
         </is>
       </c>
       <c r="F827">
@@ -35955,7 +35955,7 @@
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t>GADUMER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F828">
@@ -35998,7 +35998,7 @@
       </c>
       <c r="E829" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F829">
@@ -36041,7 +36041,7 @@
       </c>
       <c r="E830" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F830">
@@ -36084,7 +36084,7 @@
       </c>
       <c r="E831" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="F831">
@@ -36127,7 +36127,7 @@
       </c>
       <c r="E832" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F832">
@@ -36160,7 +36160,7 @@
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D833" t="inlineStr">
@@ -36170,7 +36170,7 @@
       </c>
       <c r="E833" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F833">
@@ -36213,7 +36213,7 @@
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="F834">
@@ -36256,7 +36256,7 @@
       </c>
       <c r="E835" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F835">
@@ -36299,7 +36299,7 @@
       </c>
       <c r="E836" t="inlineStr">
         <is>
-          <t>LITHMOR</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F836">
@@ -36342,7 +36342,7 @@
       </c>
       <c r="E837" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F837">
@@ -36385,7 +36385,7 @@
       </c>
       <c r="E838" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F838">
@@ -36428,7 +36428,7 @@
       </c>
       <c r="E839" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F839">
@@ -36471,7 +36471,7 @@
       </c>
       <c r="E840" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SOLEIMP</t>
         </is>
       </c>
       <c r="F840">
@@ -36514,7 +36514,7 @@
       </c>
       <c r="E841" t="inlineStr">
         <is>
-          <t>SOLEIMP</t>
+          <t>LIZARAM</t>
         </is>
       </c>
       <c r="F841">
@@ -36552,7 +36552,7 @@
       </c>
       <c r="D842" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E842" t="inlineStr">
@@ -36600,7 +36600,7 @@
       </c>
       <c r="E843" t="inlineStr">
         <is>
-          <t>LIZARAM</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F843">
@@ -36643,7 +36643,7 @@
       </c>
       <c r="E844" t="inlineStr">
         <is>
-          <t>LITHMOR</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F844">
@@ -36686,7 +36686,7 @@
       </c>
       <c r="E845" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="F845">
@@ -36729,7 +36729,7 @@
       </c>
       <c r="E846" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F846">
@@ -36772,7 +36772,7 @@
       </c>
       <c r="E847" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F847">
@@ -36815,7 +36815,7 @@
       </c>
       <c r="E848" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SOLEIMP</t>
         </is>
       </c>
       <c r="F848">
@@ -36853,12 +36853,12 @@
       </c>
       <c r="D849" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E849" t="inlineStr">
         <is>
-          <t>SOLEIMP</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F849">
@@ -36891,7 +36891,7 @@
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D850" t="inlineStr">
@@ -36901,7 +36901,7 @@
       </c>
       <c r="E850" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F850">
@@ -36944,7 +36944,7 @@
       </c>
       <c r="E851" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F851">
@@ -36987,7 +36987,7 @@
       </c>
       <c r="E852" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F852">
@@ -37030,7 +37030,7 @@
       </c>
       <c r="E853" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F853">
@@ -37073,7 +37073,7 @@
       </c>
       <c r="E854" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PENAZTC</t>
         </is>
       </c>
       <c r="F854">
@@ -37116,7 +37116,7 @@
       </c>
       <c r="E855" t="inlineStr">
         <is>
-          <t>PENAZTC</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F855">
@@ -37159,7 +37159,7 @@
       </c>
       <c r="E856" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>CHLAGLA</t>
         </is>
       </c>
       <c r="F856">
@@ -37202,7 +37202,7 @@
       </c>
       <c r="E857" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F857">
@@ -37245,7 +37245,7 @@
       </c>
       <c r="E858" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F858">
@@ -37283,12 +37283,12 @@
       </c>
       <c r="D859" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E859" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F859">
@@ -37331,7 +37331,7 @@
       </c>
       <c r="E860" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F860">
@@ -37374,7 +37374,7 @@
       </c>
       <c r="E861" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>PENAZTC</t>
         </is>
       </c>
       <c r="F861">
@@ -37417,7 +37417,7 @@
       </c>
       <c r="E862" t="inlineStr">
         <is>
-          <t>PENAZTC</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F862">
@@ -37460,7 +37460,7 @@
       </c>
       <c r="E863" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F863">
@@ -37503,7 +37503,7 @@
       </c>
       <c r="E864" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F864">
@@ -37546,7 +37546,7 @@
       </c>
       <c r="E865" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F865">
@@ -37589,7 +37589,7 @@
       </c>
       <c r="E866" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F866">
@@ -37632,7 +37632,7 @@
       </c>
       <c r="E867" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F867">
@@ -37670,12 +37670,12 @@
       </c>
       <c r="D868" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E868" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F868">
@@ -37713,7 +37713,7 @@
       </c>
       <c r="D869" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E869" t="inlineStr">
@@ -37756,12 +37756,12 @@
       </c>
       <c r="D870" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E870" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F870">
@@ -37794,7 +37794,7 @@
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D871" t="inlineStr">
@@ -37804,7 +37804,7 @@
       </c>
       <c r="E871" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F871">
@@ -37847,7 +37847,7 @@
       </c>
       <c r="E872" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>SYGNASP</t>
         </is>
       </c>
       <c r="F872">
@@ -37890,7 +37890,7 @@
       </c>
       <c r="E873" t="inlineStr">
         <is>
-          <t>SYGNASP</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F873">
@@ -37933,7 +37933,7 @@
       </c>
       <c r="E874" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F874">
@@ -37976,7 +37976,7 @@
       </c>
       <c r="E875" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F875">
@@ -38019,7 +38019,7 @@
       </c>
       <c r="E876" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F876">
@@ -38062,7 +38062,7 @@
       </c>
       <c r="E877" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>MULLBAR</t>
         </is>
       </c>
       <c r="F877">
@@ -38105,7 +38105,7 @@
       </c>
       <c r="E878" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>SOLEIMP</t>
         </is>
       </c>
       <c r="F878">
@@ -38148,7 +38148,7 @@
       </c>
       <c r="E879" t="inlineStr">
         <is>
-          <t>SOLEIMP</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F879">
@@ -38191,7 +38191,7 @@
       </c>
       <c r="E880" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F880">
@@ -38234,7 +38234,7 @@
       </c>
       <c r="E881" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F881">
@@ -38277,7 +38277,7 @@
       </c>
       <c r="E882" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F882">
@@ -38320,7 +38320,7 @@
       </c>
       <c r="E883" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F883">
@@ -38363,7 +38363,7 @@
       </c>
       <c r="E884" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F884">
@@ -38401,12 +38401,12 @@
       </c>
       <c r="D885" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E885" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F885">
@@ -38449,7 +38449,7 @@
       </c>
       <c r="E886" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F886">
@@ -38492,7 +38492,7 @@
       </c>
       <c r="E887" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>SOLEIMP</t>
         </is>
       </c>
       <c r="F887">
@@ -38535,7 +38535,7 @@
       </c>
       <c r="E888" t="inlineStr">
         <is>
-          <t>SOLEIMP</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F888">
@@ -38578,7 +38578,7 @@
       </c>
       <c r="E889" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F889">
@@ -38621,7 +38621,7 @@
       </c>
       <c r="E890" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F890">
@@ -38664,7 +38664,7 @@
       </c>
       <c r="E891" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F891">
@@ -38707,7 +38707,7 @@
       </c>
       <c r="E892" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F892">
@@ -38750,7 +38750,7 @@
       </c>
       <c r="E893" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F893">
@@ -38793,7 +38793,7 @@
       </c>
       <c r="E894" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F894">
@@ -38836,7 +38836,7 @@
       </c>
       <c r="E895" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F895">
@@ -38879,7 +38879,7 @@
       </c>
       <c r="E896" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SOLEAEG</t>
         </is>
       </c>
       <c r="F896">
@@ -38917,12 +38917,12 @@
       </c>
       <c r="D897" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E897" t="inlineStr">
         <is>
-          <t>SOLEAEG</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F897">
@@ -38965,7 +38965,7 @@
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F898">
@@ -39008,7 +39008,7 @@
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>CHLAGLA</t>
         </is>
       </c>
       <c r="F899">
@@ -39041,7 +39041,7 @@
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D900" t="inlineStr">
@@ -39051,7 +39051,7 @@
       </c>
       <c r="E900" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F900">
@@ -39094,7 +39094,7 @@
       </c>
       <c r="E901" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F901">
@@ -39137,7 +39137,7 @@
       </c>
       <c r="E902" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F902">
@@ -39180,7 +39180,7 @@
       </c>
       <c r="E903" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F903">
@@ -39223,7 +39223,7 @@
       </c>
       <c r="E904" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F904">
@@ -39266,7 +39266,7 @@
       </c>
       <c r="E905" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F905">
@@ -39309,7 +39309,7 @@
       </c>
       <c r="E906" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F906">
@@ -39352,7 +39352,7 @@
       </c>
       <c r="E907" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F907">
@@ -39395,7 +39395,7 @@
       </c>
       <c r="E908" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F908">
@@ -39433,12 +39433,12 @@
       </c>
       <c r="D909" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E909" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F909">
@@ -39481,7 +39481,7 @@
       </c>
       <c r="E910" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F910">
@@ -39524,7 +39524,7 @@
       </c>
       <c r="E911" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F911">
@@ -39567,7 +39567,7 @@
       </c>
       <c r="E912" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F912">
@@ -39610,7 +39610,7 @@
       </c>
       <c r="E913" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F913">
@@ -39653,7 +39653,7 @@
       </c>
       <c r="E914" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F914">
@@ -39691,12 +39691,12 @@
       </c>
       <c r="D915" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E915" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F915">
@@ -39739,7 +39739,7 @@
       </c>
       <c r="E916" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>GOBISUE</t>
         </is>
       </c>
       <c r="F916">
@@ -39782,7 +39782,7 @@
       </c>
       <c r="E917" t="inlineStr">
         <is>
-          <t>GOBISUE</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F917">
@@ -39815,17 +39815,17 @@
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D918" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E918" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F918">
@@ -39868,7 +39868,7 @@
       </c>
       <c r="E919" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F919">
@@ -39911,7 +39911,7 @@
       </c>
       <c r="E920" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>MULLSUR</t>
         </is>
       </c>
       <c r="F920">
@@ -39954,7 +39954,7 @@
       </c>
       <c r="E921" t="inlineStr">
         <is>
-          <t>MULLSUR</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F921">
@@ -39997,7 +39997,7 @@
       </c>
       <c r="E922" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F922">
@@ -40040,7 +40040,7 @@
       </c>
       <c r="E923" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F923">
@@ -40083,7 +40083,7 @@
       </c>
       <c r="E924" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F924">
@@ -40126,7 +40126,7 @@
       </c>
       <c r="E925" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F925">
@@ -40169,7 +40169,7 @@
       </c>
       <c r="E926" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F926">
@@ -40212,7 +40212,7 @@
       </c>
       <c r="E927" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F927">
@@ -40255,7 +40255,7 @@
       </c>
       <c r="E928" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>TRAHDRA</t>
         </is>
       </c>
       <c r="F928">
@@ -40298,7 +40298,7 @@
       </c>
       <c r="E929" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F929">
@@ -40341,7 +40341,7 @@
       </c>
       <c r="E930" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F930">
@@ -40384,7 +40384,7 @@
       </c>
       <c r="E931" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>TRIPLAS</t>
         </is>
       </c>
       <c r="F931">
@@ -40427,7 +40427,7 @@
       </c>
       <c r="E932" t="inlineStr">
         <is>
-          <t>TRIPLAS</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F932">
@@ -40470,7 +40470,7 @@
       </c>
       <c r="E933" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F933">
@@ -40513,7 +40513,7 @@
       </c>
       <c r="E934" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F934">
@@ -40551,12 +40551,12 @@
       </c>
       <c r="D935" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E935" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F935">
@@ -40599,7 +40599,7 @@
       </c>
       <c r="E936" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F936">
@@ -40642,7 +40642,7 @@
       </c>
       <c r="E937" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F937">
@@ -40685,7 +40685,7 @@
       </c>
       <c r="E938" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F938">
@@ -40728,7 +40728,7 @@
       </c>
       <c r="E939" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F939">
@@ -40771,7 +40771,7 @@
       </c>
       <c r="E940" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F940">
@@ -40814,7 +40814,7 @@
       </c>
       <c r="E941" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F941">
@@ -40857,7 +40857,7 @@
       </c>
       <c r="E942" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F942">
@@ -40900,7 +40900,7 @@
       </c>
       <c r="E943" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>GOBISUE</t>
         </is>
       </c>
       <c r="F943">
@@ -40943,7 +40943,7 @@
       </c>
       <c r="E944" t="inlineStr">
         <is>
-          <t>GOBISUE</t>
+          <t>MICUOCE</t>
         </is>
       </c>
       <c r="F944">
@@ -40986,7 +40986,7 @@
       </c>
       <c r="E945" t="inlineStr">
         <is>
-          <t>MICUOCE</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F945">
@@ -41029,7 +41029,7 @@
       </c>
       <c r="E946" t="inlineStr">
         <is>
-          <t>TRISCAP</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F946">
@@ -41072,7 +41072,7 @@
       </c>
       <c r="E947" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F947">
@@ -41115,7 +41115,7 @@
       </c>
       <c r="E948" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F948">
@@ -41158,7 +41158,7 @@
       </c>
       <c r="E949" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F949">
@@ -41196,12 +41196,12 @@
       </c>
       <c r="D950" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E950" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F950">
@@ -41239,7 +41239,7 @@
       </c>
       <c r="D951" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E951" t="inlineStr">
@@ -41287,7 +41287,7 @@
       </c>
       <c r="E952" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F952">
@@ -41330,7 +41330,7 @@
       </c>
       <c r="E953" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F953">
@@ -41373,7 +41373,7 @@
       </c>
       <c r="E954" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F954">
@@ -41406,17 +41406,17 @@
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D955" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E955" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>TORPMAR</t>
         </is>
       </c>
       <c r="F955">
@@ -41459,7 +41459,7 @@
       </c>
       <c r="E956" t="inlineStr">
         <is>
-          <t>TORPMAR</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F956">
@@ -41502,7 +41502,7 @@
       </c>
       <c r="E957" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>TRAHDRA</t>
         </is>
       </c>
       <c r="F957">
@@ -41545,7 +41545,7 @@
       </c>
       <c r="E958" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F958">
@@ -41588,7 +41588,7 @@
       </c>
       <c r="E959" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F959">
@@ -41631,7 +41631,7 @@
       </c>
       <c r="E960" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>SCORSCO</t>
         </is>
       </c>
       <c r="F960">
@@ -41674,7 +41674,7 @@
       </c>
       <c r="E961" t="inlineStr">
         <is>
-          <t>SCORSCO</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F961">
@@ -41717,7 +41717,7 @@
       </c>
       <c r="E962" t="inlineStr">
         <is>
-          <t>TRISCAP</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F962">
@@ -41760,7 +41760,7 @@
       </c>
       <c r="E963" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F963">
@@ -41803,7 +41803,7 @@
       </c>
       <c r="E964" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>MULLSUR</t>
         </is>
       </c>
       <c r="F964">
@@ -41846,7 +41846,7 @@
       </c>
       <c r="E965" t="inlineStr">
         <is>
-          <t>MULLSUR</t>
+          <t>MICUVAR</t>
         </is>
       </c>
       <c r="F965">
@@ -41889,7 +41889,7 @@
       </c>
       <c r="E966" t="inlineStr">
         <is>
-          <t>MICUVAR</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F966">
@@ -41932,7 +41932,7 @@
       </c>
       <c r="E967" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F967">
@@ -41975,7 +41975,7 @@
       </c>
       <c r="E968" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>TRIPLAS</t>
         </is>
       </c>
       <c r="F968">
@@ -42018,7 +42018,7 @@
       </c>
       <c r="E969" t="inlineStr">
         <is>
-          <t>TRIPLAS</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F969">
@@ -42061,7 +42061,7 @@
       </c>
       <c r="E970" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F970">
@@ -42104,7 +42104,7 @@
       </c>
       <c r="E971" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F971">
@@ -42147,7 +42147,7 @@
       </c>
       <c r="E972" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F972">
@@ -42185,12 +42185,12 @@
       </c>
       <c r="D973" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E973" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>RAJACLA</t>
         </is>
       </c>
       <c r="F973">
@@ -42233,7 +42233,7 @@
       </c>
       <c r="E974" t="inlineStr">
         <is>
-          <t>RAJACLA</t>
+          <t>MULLSUR</t>
         </is>
       </c>
       <c r="F974">
@@ -42276,7 +42276,7 @@
       </c>
       <c r="E975" t="inlineStr">
         <is>
-          <t>MULLSUR</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F975">
@@ -42319,7 +42319,7 @@
       </c>
       <c r="E976" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F976">
@@ -42362,7 +42362,7 @@
       </c>
       <c r="E977" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SCYOCAN</t>
         </is>
       </c>
       <c r="F977">
@@ -42405,7 +42405,7 @@
       </c>
       <c r="E978" t="inlineStr">
         <is>
-          <t>SCYOCAN</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F978">
@@ -42448,7 +42448,7 @@
       </c>
       <c r="E979" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>SPICMAE</t>
         </is>
       </c>
       <c r="F979">
@@ -42491,7 +42491,7 @@
       </c>
       <c r="E980" t="inlineStr">
         <is>
-          <t>SPICMAE</t>
+          <t>SCORPOR</t>
         </is>
       </c>
       <c r="F980">
@@ -42534,7 +42534,7 @@
       </c>
       <c r="E981" t="inlineStr">
         <is>
-          <t>SCORPOR</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F981">
@@ -42577,7 +42577,7 @@
       </c>
       <c r="E982" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F982">
@@ -42620,7 +42620,7 @@
       </c>
       <c r="E983" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F983">
@@ -42663,7 +42663,7 @@
       </c>
       <c r="E984" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F984">
@@ -42706,7 +42706,7 @@
       </c>
       <c r="E985" t="inlineStr">
         <is>
-          <t>TRISCAP</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F985">
@@ -42749,7 +42749,7 @@
       </c>
       <c r="E986" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F986">
@@ -42792,7 +42792,7 @@
       </c>
       <c r="E987" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F987">
@@ -42835,7 +42835,7 @@
       </c>
       <c r="E988" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>TRIPLAS</t>
         </is>
       </c>
       <c r="F988">
@@ -42878,7 +42878,7 @@
       </c>
       <c r="E989" t="inlineStr">
         <is>
-          <t>TRIPLAS</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F989">
@@ -42916,12 +42916,12 @@
       </c>
       <c r="D990" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E990" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F990">
@@ -42959,7 +42959,7 @@
       </c>
       <c r="D991" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E991" t="inlineStr">
@@ -43007,7 +43007,7 @@
       </c>
       <c r="E992" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F992">
@@ -43040,7 +43040,7 @@
       </c>
       <c r="C993" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D993" t="inlineStr">
@@ -43050,7 +43050,7 @@
       </c>
       <c r="E993" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F993">
@@ -43088,7 +43088,7 @@
       </c>
       <c r="D994" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E994" t="inlineStr">
@@ -43136,7 +43136,7 @@
       </c>
       <c r="E995" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F995">
@@ -43179,7 +43179,7 @@
       </c>
       <c r="E996" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F996">
@@ -43222,7 +43222,7 @@
       </c>
       <c r="E997" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F997">
@@ -43265,7 +43265,7 @@
       </c>
       <c r="E998" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F998">
@@ -43308,7 +43308,7 @@
       </c>
       <c r="E999" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F999">
@@ -43351,7 +43351,7 @@
       </c>
       <c r="E1000" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1000">
@@ -43394,7 +43394,7 @@
       </c>
       <c r="E1001" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F1001">
@@ -43437,7 +43437,7 @@
       </c>
       <c r="E1002" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F1002">
@@ -43480,7 +43480,7 @@
       </c>
       <c r="E1003" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1003">
@@ -43523,7 +43523,7 @@
       </c>
       <c r="E1004" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F1004">
@@ -43566,7 +43566,7 @@
       </c>
       <c r="E1005" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1005">
@@ -43609,7 +43609,7 @@
       </c>
       <c r="E1006" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1006">
@@ -43652,7 +43652,7 @@
       </c>
       <c r="E1007" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1007">
@@ -43690,12 +43690,12 @@
       </c>
       <c r="D1008" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1008" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F1008">
@@ -43738,7 +43738,7 @@
       </c>
       <c r="E1009" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1009">
@@ -43781,7 +43781,7 @@
       </c>
       <c r="E1010" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F1010">
@@ -43824,7 +43824,7 @@
       </c>
       <c r="E1011" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F1011">
@@ -43867,7 +43867,7 @@
       </c>
       <c r="E1012" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1012">
@@ -43910,7 +43910,7 @@
       </c>
       <c r="E1013" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F1013">
@@ -43953,7 +43953,7 @@
       </c>
       <c r="E1014" t="inlineStr">
         <is>
-          <t>TRISCAP</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F1014">
@@ -43996,7 +43996,7 @@
       </c>
       <c r="E1015" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1015">
@@ -44039,7 +44039,7 @@
       </c>
       <c r="E1016" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F1016">
@@ -44082,7 +44082,7 @@
       </c>
       <c r="E1017" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F1017">
@@ -44125,7 +44125,7 @@
       </c>
       <c r="E1018" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1018">
@@ -44168,7 +44168,7 @@
       </c>
       <c r="E1019" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1019">
@@ -44211,7 +44211,7 @@
       </c>
       <c r="E1020" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1020">
@@ -44249,12 +44249,12 @@
       </c>
       <c r="D1021" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1021" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1021">
@@ -44297,7 +44297,7 @@
       </c>
       <c r="E1022" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ILLECOI</t>
         </is>
       </c>
       <c r="F1022">
@@ -44335,7 +44335,7 @@
       </c>
       <c r="D1023" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1023" t="inlineStr">
@@ -44383,7 +44383,7 @@
       </c>
       <c r="E1024" t="inlineStr">
         <is>
-          <t>ILLECOI</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1024">
@@ -44426,7 +44426,7 @@
       </c>
       <c r="E1025" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F1025">
@@ -44469,7 +44469,7 @@
       </c>
       <c r="E1026" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F1026">
@@ -44502,17 +44502,17 @@
       </c>
       <c r="C1027" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1027" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SPARAUR</t>
         </is>
       </c>
       <c r="F1027">
@@ -44555,7 +44555,7 @@
       </c>
       <c r="E1028" t="inlineStr">
         <is>
-          <t>SPARAUR</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F1028">
@@ -44598,7 +44598,7 @@
       </c>
       <c r="E1029" t="inlineStr">
         <is>
-          <t>LITHMOR</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1029">
@@ -44641,7 +44641,7 @@
       </c>
       <c r="E1030" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>MULLBAR</t>
         </is>
       </c>
       <c r="F1030">
@@ -44684,7 +44684,7 @@
       </c>
       <c r="E1031" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1031">
@@ -44727,7 +44727,7 @@
       </c>
       <c r="E1032" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1032">
@@ -44770,7 +44770,7 @@
       </c>
       <c r="E1033" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1033">
@@ -44813,7 +44813,7 @@
       </c>
       <c r="E1034" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F1034">
@@ -44856,7 +44856,7 @@
       </c>
       <c r="E1035" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1035">
@@ -44899,7 +44899,7 @@
       </c>
       <c r="E1036" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F1036">
@@ -44942,7 +44942,7 @@
       </c>
       <c r="E1037" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="F1037">
@@ -44985,7 +44985,7 @@
       </c>
       <c r="E1038" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F1038">
@@ -45028,7 +45028,7 @@
       </c>
       <c r="E1039" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1039">
@@ -45071,7 +45071,7 @@
       </c>
       <c r="E1040" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>DIPLSAR</t>
         </is>
       </c>
       <c r="F1040">
@@ -45109,12 +45109,12 @@
       </c>
       <c r="D1041" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1041" t="inlineStr">
         <is>
-          <t>DIPLSAR</t>
+          <t>LOLIVUL</t>
         </is>
       </c>
       <c r="F1041">
@@ -45157,7 +45157,7 @@
       </c>
       <c r="E1042" t="inlineStr">
         <is>
-          <t>LOLIVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1042">
@@ -45200,7 +45200,7 @@
       </c>
       <c r="E1043" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1043">
@@ -45243,7 +45243,7 @@
       </c>
       <c r="E1044" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1044">
@@ -45286,7 +45286,7 @@
       </c>
       <c r="E1045" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1045">
@@ -45329,7 +45329,7 @@
       </c>
       <c r="E1046" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F1046">
@@ -45372,7 +45372,7 @@
       </c>
       <c r="E1047" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1047">
@@ -45415,7 +45415,7 @@
       </c>
       <c r="E1048" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="F1048">
@@ -45458,7 +45458,7 @@
       </c>
       <c r="E1049" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F1049">
@@ -45501,7 +45501,7 @@
       </c>
       <c r="E1050" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SPARAUR</t>
         </is>
       </c>
       <c r="F1050">
@@ -45544,7 +45544,7 @@
       </c>
       <c r="E1051" t="inlineStr">
         <is>
-          <t>SPARAUR</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F1051">
@@ -45587,7 +45587,7 @@
       </c>
       <c r="E1052" t="inlineStr">
         <is>
-          <t>LITHMOR</t>
+          <t>SOLEAEG</t>
         </is>
       </c>
       <c r="F1052">
@@ -45630,7 +45630,7 @@
       </c>
       <c r="E1053" t="inlineStr">
         <is>
-          <t>SOLEAEG</t>
+          <t>CHLAGLA</t>
         </is>
       </c>
       <c r="F1053">
@@ -45663,17 +45663,17 @@
       </c>
       <c r="C1054" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D1054" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1054" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F1054">
@@ -45716,7 +45716,7 @@
       </c>
       <c r="E1055" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1055">
@@ -45759,7 +45759,7 @@
       </c>
       <c r="E1056" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>NEPRNOR</t>
         </is>
       </c>
       <c r="F1056">
@@ -45802,7 +45802,7 @@
       </c>
       <c r="E1057" t="inlineStr">
         <is>
-          <t>NEPRNOR</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1057">
@@ -45845,7 +45845,7 @@
       </c>
       <c r="E1058" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1058">
@@ -45888,7 +45888,7 @@
       </c>
       <c r="E1059" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1059">
@@ -45931,7 +45931,7 @@
       </c>
       <c r="E1060" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1060">
@@ -45974,7 +45974,7 @@
       </c>
       <c r="E1061" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F1061">
@@ -46017,7 +46017,7 @@
       </c>
       <c r="E1062" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F1062">
@@ -46060,7 +46060,7 @@
       </c>
       <c r="E1063" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F1063">
@@ -46103,7 +46103,7 @@
       </c>
       <c r="E1064" t="inlineStr">
         <is>
-          <t>TRISCAP</t>
+          <t>SCORSCO</t>
         </is>
       </c>
       <c r="F1064">
@@ -46146,7 +46146,7 @@
       </c>
       <c r="E1065" t="inlineStr">
         <is>
-          <t>SCORSCO</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F1065">
@@ -46189,7 +46189,7 @@
       </c>
       <c r="E1066" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F1066">
@@ -46232,7 +46232,7 @@
       </c>
       <c r="E1067" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F1067">
@@ -46275,7 +46275,7 @@
       </c>
       <c r="E1068" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F1068">
@@ -46318,7 +46318,7 @@
       </c>
       <c r="E1069" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>TRIPLAS</t>
         </is>
       </c>
       <c r="F1069">
@@ -46361,7 +46361,7 @@
       </c>
       <c r="E1070" t="inlineStr">
         <is>
-          <t>TRIPLAS</t>
+          <t>MUSTMUS</t>
         </is>
       </c>
       <c r="F1070">
@@ -46399,12 +46399,12 @@
       </c>
       <c r="D1071" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1071" t="inlineStr">
         <is>
-          <t>MUSTMUS</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F1071">
@@ -46447,7 +46447,7 @@
       </c>
       <c r="E1072" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>MUSTMUS</t>
         </is>
       </c>
       <c r="F1072">
@@ -46490,7 +46490,7 @@
       </c>
       <c r="E1073" t="inlineStr">
         <is>
-          <t>MUSTMUS</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F1073">
@@ -46533,7 +46533,7 @@
       </c>
       <c r="E1074" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F1074">
@@ -46576,7 +46576,7 @@
       </c>
       <c r="E1075" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1075">
@@ -46619,7 +46619,7 @@
       </c>
       <c r="E1076" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F1076">
@@ -46662,7 +46662,7 @@
       </c>
       <c r="E1077" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>GADUMER</t>
         </is>
       </c>
       <c r="F1077">
@@ -46705,7 +46705,7 @@
       </c>
       <c r="E1078" t="inlineStr">
         <is>
-          <t>GADUMER</t>
+          <t>SCORPOR</t>
         </is>
       </c>
       <c r="F1078">
@@ -46748,7 +46748,7 @@
       </c>
       <c r="E1079" t="inlineStr">
         <is>
-          <t>SCORPOR</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F1079">
@@ -46791,7 +46791,7 @@
       </c>
       <c r="E1080" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1080">
@@ -46834,7 +46834,7 @@
       </c>
       <c r="E1081" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1081">
@@ -46877,7 +46877,7 @@
       </c>
       <c r="E1082" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F1082">
@@ -46920,7 +46920,7 @@
       </c>
       <c r="E1083" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F1083">
@@ -46963,7 +46963,7 @@
       </c>
       <c r="E1084" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F1084">
@@ -47006,7 +47006,7 @@
       </c>
       <c r="E1085" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>SYGNASP</t>
         </is>
       </c>
       <c r="F1085">
@@ -47049,7 +47049,7 @@
       </c>
       <c r="E1086" t="inlineStr">
         <is>
-          <t>SYGNASP</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1086">
@@ -47092,7 +47092,7 @@
       </c>
       <c r="E1087" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F1087">
@@ -47135,7 +47135,7 @@
       </c>
       <c r="E1088" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1088">
@@ -47173,12 +47173,12 @@
       </c>
       <c r="D1089" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1089" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F1089">
@@ -47216,7 +47216,7 @@
       </c>
       <c r="D1090" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1090" t="inlineStr">
@@ -47264,7 +47264,7 @@
       </c>
       <c r="E1091" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F1091">
@@ -47307,7 +47307,7 @@
       </c>
       <c r="E1092" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F1092">
@@ -47340,17 +47340,17 @@
       </c>
       <c r="C1093" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D1093" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1093" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1093">
@@ -47393,7 +47393,7 @@
       </c>
       <c r="E1094" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1094">
@@ -47436,7 +47436,7 @@
       </c>
       <c r="E1095" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1095">
@@ -47479,7 +47479,7 @@
       </c>
       <c r="E1096" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>CEPOMAC</t>
         </is>
       </c>
       <c r="F1096">
@@ -47522,7 +47522,7 @@
       </c>
       <c r="E1097" t="inlineStr">
         <is>
-          <t>CEPOMAC</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F1097">
@@ -47565,7 +47565,7 @@
       </c>
       <c r="E1098" t="inlineStr">
         <is>
-          <t>LITHMOR</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F1098">
@@ -47608,7 +47608,7 @@
       </c>
       <c r="E1099" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>ILLECOI</t>
         </is>
       </c>
       <c r="F1099">
@@ -47651,7 +47651,7 @@
       </c>
       <c r="E1100" t="inlineStr">
         <is>
-          <t>ILLECOI</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1100">
@@ -47694,7 +47694,7 @@
       </c>
       <c r="E1101" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F1101">
@@ -47737,7 +47737,7 @@
       </c>
       <c r="E1102" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F1102">
@@ -47780,7 +47780,7 @@
       </c>
       <c r="E1103" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>MICUOCE</t>
         </is>
       </c>
       <c r="F1103">
@@ -47823,7 +47823,7 @@
       </c>
       <c r="E1104" t="inlineStr">
         <is>
-          <t>MICUOCE</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1104">
@@ -47866,7 +47866,7 @@
       </c>
       <c r="E1105" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1105">
@@ -47904,12 +47904,12 @@
       </c>
       <c r="D1106" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1106" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F1106">
@@ -47952,7 +47952,7 @@
       </c>
       <c r="E1107" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1107">
@@ -47995,7 +47995,7 @@
       </c>
       <c r="E1108" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1108">
@@ -48038,7 +48038,7 @@
       </c>
       <c r="E1109" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1109">
@@ -48081,7 +48081,7 @@
       </c>
       <c r="E1110" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F1110">
@@ -48124,7 +48124,7 @@
       </c>
       <c r="E1111" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1111">
@@ -48167,7 +48167,7 @@
       </c>
       <c r="E1112" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1112">
@@ -48210,7 +48210,7 @@
       </c>
       <c r="E1113" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="F1113">
@@ -48248,12 +48248,12 @@
       </c>
       <c r="D1114" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1114" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F1114">
@@ -48291,12 +48291,12 @@
       </c>
       <c r="D1115" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1115" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F1115">
@@ -48339,7 +48339,7 @@
       </c>
       <c r="E1116" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1116">
@@ -48377,12 +48377,12 @@
       </c>
       <c r="D1117" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1117" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SOLEAEG</t>
         </is>
       </c>
       <c r="F1117">
@@ -48420,12 +48420,12 @@
       </c>
       <c r="D1118" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1118" t="inlineStr">
         <is>
-          <t>SOLEAEG</t>
+          <t>GOBISUE</t>
         </is>
       </c>
       <c r="F1118">
@@ -48468,7 +48468,7 @@
       </c>
       <c r="E1119" t="inlineStr">
         <is>
-          <t>GOBISUE</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F1119">
@@ -48501,7 +48501,7 @@
       </c>
       <c r="C1120" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D1120" t="inlineStr">
@@ -48511,7 +48511,7 @@
       </c>
       <c r="E1120" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F1120">
@@ -48554,7 +48554,7 @@
       </c>
       <c r="E1121" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1121">
@@ -48597,7 +48597,7 @@
       </c>
       <c r="E1122" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F1122">
@@ -48640,7 +48640,7 @@
       </c>
       <c r="E1123" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1123">
@@ -48683,7 +48683,7 @@
       </c>
       <c r="E1124" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1124">
@@ -48726,7 +48726,7 @@
       </c>
       <c r="E1125" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F1125">
@@ -48769,7 +48769,7 @@
       </c>
       <c r="E1126" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F1126">
@@ -48812,7 +48812,7 @@
       </c>
       <c r="E1127" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1127">
@@ -48855,7 +48855,7 @@
       </c>
       <c r="E1128" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1128">
@@ -48898,7 +48898,7 @@
       </c>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F1129">
@@ -48941,7 +48941,7 @@
       </c>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F1130">
@@ -48984,7 +48984,7 @@
       </c>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F1131">
@@ -49027,7 +49027,7 @@
       </c>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1132">
@@ -49065,12 +49065,12 @@
       </c>
       <c r="D1133" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1133">
@@ -49113,7 +49113,7 @@
       </c>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F1134">
@@ -49156,7 +49156,7 @@
       </c>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F1135">
@@ -49199,7 +49199,7 @@
       </c>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1136">
@@ -49242,7 +49242,7 @@
       </c>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1137">
@@ -49285,7 +49285,7 @@
       </c>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F1138">
@@ -49328,7 +49328,7 @@
       </c>
       <c r="E1139" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F1139">
@@ -49371,7 +49371,7 @@
       </c>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F1140">
@@ -49414,7 +49414,7 @@
       </c>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F1141">
@@ -49457,7 +49457,7 @@
       </c>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>TRAHDRA</t>
         </is>
       </c>
       <c r="F1142">
@@ -49500,7 +49500,7 @@
       </c>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F1143">
@@ -49543,7 +49543,7 @@
       </c>
       <c r="E1144" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F1144">
@@ -49586,7 +49586,7 @@
       </c>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1145">
@@ -49629,7 +49629,7 @@
       </c>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F1146">
@@ -49672,7 +49672,7 @@
       </c>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F1147">
@@ -49715,7 +49715,7 @@
       </c>
       <c r="E1148" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1148">
@@ -49758,7 +49758,7 @@
       </c>
       <c r="E1149" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F1149">
@@ -49801,7 +49801,7 @@
       </c>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SEPIELE</t>
         </is>
       </c>
       <c r="F1150">
@@ -49844,7 +49844,7 @@
       </c>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>SEPIELE</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1151">
@@ -49887,7 +49887,7 @@
       </c>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F1152">
@@ -49925,7 +49925,7 @@
       </c>
       <c r="D1153" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1153" t="inlineStr">
@@ -49973,7 +49973,7 @@
       </c>
       <c r="E1154" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIELE</t>
         </is>
       </c>
       <c r="F1154">
@@ -50016,7 +50016,7 @@
       </c>
       <c r="E1155" t="inlineStr">
         <is>
-          <t>SEPIELE</t>
+          <t>GOBISUE</t>
         </is>
       </c>
       <c r="F1155">
@@ -50059,7 +50059,7 @@
       </c>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>GOBISUE</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F1156">
@@ -50102,7 +50102,7 @@
       </c>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>CHLAGLA</t>
         </is>
       </c>
       <c r="F1157">
@@ -50145,7 +50145,7 @@
       </c>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F1158">
@@ -50188,7 +50188,7 @@
       </c>
       <c r="E1159" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F1159">
@@ -50221,17 +50221,17 @@
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1160" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1160">
@@ -50274,7 +50274,7 @@
       </c>
       <c r="E1161" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1161">
@@ -50317,7 +50317,7 @@
       </c>
       <c r="E1162" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1162">
@@ -50360,7 +50360,7 @@
       </c>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1163">
@@ -50403,7 +50403,7 @@
       </c>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F1164">
@@ -50446,7 +50446,7 @@
       </c>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>TRISCAP</t>
+          <t>GOBISUE</t>
         </is>
       </c>
       <c r="F1165">
@@ -50489,7 +50489,7 @@
       </c>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>GOBISUE</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1166">
@@ -50532,7 +50532,7 @@
       </c>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F1167">
@@ -50575,7 +50575,7 @@
       </c>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1168">
@@ -50618,7 +50618,7 @@
       </c>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>ILLECOI</t>
         </is>
       </c>
       <c r="F1169">
@@ -50661,7 +50661,7 @@
       </c>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>ILLECOI</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F1170">
@@ -50704,7 +50704,7 @@
       </c>
       <c r="E1171" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1171">
@@ -50742,12 +50742,12 @@
       </c>
       <c r="D1172" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F1172">
@@ -50790,7 +50790,7 @@
       </c>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>TORPMAR</t>
         </is>
       </c>
       <c r="F1173">
@@ -50833,7 +50833,7 @@
       </c>
       <c r="E1174" t="inlineStr">
         <is>
-          <t>TORPMAR</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1174">
@@ -50876,7 +50876,7 @@
       </c>
       <c r="E1175" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>LOLIVUL</t>
         </is>
       </c>
       <c r="F1175">
@@ -50919,7 +50919,7 @@
       </c>
       <c r="E1176" t="inlineStr">
         <is>
-          <t>LOLIVUL</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1176">
@@ -50962,7 +50962,7 @@
       </c>
       <c r="E1177" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F1177">
@@ -51005,7 +51005,7 @@
       </c>
       <c r="E1178" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1178">
@@ -51048,7 +51048,7 @@
       </c>
       <c r="E1179" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F1179">
@@ -51091,7 +51091,7 @@
       </c>
       <c r="E1180" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1180">
@@ -51134,7 +51134,7 @@
       </c>
       <c r="E1181" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MULLBAR</t>
         </is>
       </c>
       <c r="F1181">
@@ -51177,7 +51177,7 @@
       </c>
       <c r="E1182" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1182">
@@ -51220,7 +51220,7 @@
       </c>
       <c r="E1183" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PENAZTC</t>
         </is>
       </c>
       <c r="F1183">
@@ -51263,7 +51263,7 @@
       </c>
       <c r="E1184" t="inlineStr">
         <is>
-          <t>PENAZTC</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1184">
@@ -51306,7 +51306,7 @@
       </c>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F1185">
@@ -51349,7 +51349,7 @@
       </c>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1186">
@@ -51387,12 +51387,12 @@
       </c>
       <c r="D1187" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1187" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F1187">
@@ -51430,7 +51430,7 @@
       </c>
       <c r="D1188" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1188" t="inlineStr">
@@ -51478,7 +51478,7 @@
       </c>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F1189">
@@ -51521,7 +51521,7 @@
       </c>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F1190">
@@ -51554,17 +51554,17 @@
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1191" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1191">
@@ -51607,7 +51607,7 @@
       </c>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1192">
@@ -51650,7 +51650,7 @@
       </c>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F1193">
@@ -51693,7 +51693,7 @@
       </c>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1194">
@@ -51736,7 +51736,7 @@
       </c>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F1195">
@@ -51779,7 +51779,7 @@
       </c>
       <c r="E1196" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>ALLOMED</t>
         </is>
       </c>
       <c r="F1196">
@@ -51822,7 +51822,7 @@
       </c>
       <c r="E1197" t="inlineStr">
         <is>
-          <t>ALLOMED</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F1197">
@@ -51865,7 +51865,7 @@
       </c>
       <c r="E1198" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1198">
@@ -51908,7 +51908,7 @@
       </c>
       <c r="E1199" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1199">
@@ -51946,12 +51946,12 @@
       </c>
       <c r="D1200" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1200" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1200">
@@ -51994,7 +51994,7 @@
       </c>
       <c r="E1201" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1201">
@@ -52037,7 +52037,7 @@
       </c>
       <c r="E1202" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>NEPRNOR</t>
         </is>
       </c>
       <c r="F1202">
@@ -52080,7 +52080,7 @@
       </c>
       <c r="E1203" t="inlineStr">
         <is>
-          <t>NEPRNOR</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1203">
@@ -52123,7 +52123,7 @@
       </c>
       <c r="E1204" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1204">
@@ -52166,7 +52166,7 @@
       </c>
       <c r="E1205" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F1205">
@@ -52209,7 +52209,7 @@
       </c>
       <c r="E1206" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1206">
@@ -52252,7 +52252,7 @@
       </c>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1207">
@@ -52295,7 +52295,7 @@
       </c>
       <c r="E1208" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F1208">
@@ -52333,12 +52333,12 @@
       </c>
       <c r="D1209" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1209" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1209">
@@ -52376,12 +52376,12 @@
       </c>
       <c r="D1210" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1210" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F1210">
@@ -52414,7 +52414,7 @@
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D1211" t="inlineStr">
@@ -52424,7 +52424,7 @@
       </c>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F1211">
@@ -52467,7 +52467,7 @@
       </c>
       <c r="E1212" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SCYOCAN</t>
         </is>
       </c>
       <c r="F1212">
@@ -52510,7 +52510,7 @@
       </c>
       <c r="E1213" t="inlineStr">
         <is>
-          <t>SCYOCAN</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F1213">
@@ -52553,7 +52553,7 @@
       </c>
       <c r="E1214" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1214">
@@ -52596,7 +52596,7 @@
       </c>
       <c r="E1215" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>MULLBAR</t>
         </is>
       </c>
       <c r="F1215">
@@ -52639,7 +52639,7 @@
       </c>
       <c r="E1216" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>MICUOCE</t>
         </is>
       </c>
       <c r="F1216">
@@ -52682,7 +52682,7 @@
       </c>
       <c r="E1217" t="inlineStr">
         <is>
-          <t>MICUOCE</t>
+          <t>SCORSCO</t>
         </is>
       </c>
       <c r="F1217">
@@ -52725,7 +52725,7 @@
       </c>
       <c r="E1218" t="inlineStr">
         <is>
-          <t>SCORSCO</t>
+          <t>SCORPOR</t>
         </is>
       </c>
       <c r="F1218">
@@ -52768,7 +52768,7 @@
       </c>
       <c r="E1219" t="inlineStr">
         <is>
-          <t>SCORPOR</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F1219">
@@ -52811,7 +52811,7 @@
       </c>
       <c r="E1220" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>SOLEKLE</t>
         </is>
       </c>
       <c r="F1220">
@@ -52854,7 +52854,7 @@
       </c>
       <c r="E1221" t="inlineStr">
         <is>
-          <t>SOLEKLE</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F1221">
@@ -52897,7 +52897,7 @@
       </c>
       <c r="E1222" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F1222">
@@ -52940,7 +52940,7 @@
       </c>
       <c r="E1223" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>TRIPLAS</t>
         </is>
       </c>
       <c r="F1223">
@@ -52983,7 +52983,7 @@
       </c>
       <c r="E1224" t="inlineStr">
         <is>
-          <t>TRIPLAS</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F1224">
@@ -53026,7 +53026,7 @@
       </c>
       <c r="E1225" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1225">
@@ -53064,12 +53064,12 @@
       </c>
       <c r="D1226" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1226" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SCYOCAN</t>
         </is>
       </c>
       <c r="F1226">
@@ -53112,7 +53112,7 @@
       </c>
       <c r="E1227" t="inlineStr">
         <is>
-          <t>SCYOCAN</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1227">
@@ -53155,7 +53155,7 @@
       </c>
       <c r="E1228" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F1228">
@@ -53198,7 +53198,7 @@
       </c>
       <c r="E1229" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>SCORSCO</t>
         </is>
       </c>
       <c r="F1229">
@@ -53241,7 +53241,7 @@
       </c>
       <c r="E1230" t="inlineStr">
         <is>
-          <t>SCORSCO</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F1230">
@@ -53284,7 +53284,7 @@
       </c>
       <c r="E1231" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F1231">
@@ -53327,7 +53327,7 @@
       </c>
       <c r="E1232" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F1232">
@@ -53370,7 +53370,7 @@
       </c>
       <c r="E1233" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>TRIPLAS</t>
         </is>
       </c>
       <c r="F1233">
@@ -53413,7 +53413,7 @@
       </c>
       <c r="E1234" t="inlineStr">
         <is>
-          <t>TRIPLAS</t>
+          <t>TRAHDRA</t>
         </is>
       </c>
       <c r="F1234">
@@ -53456,7 +53456,7 @@
       </c>
       <c r="E1235" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>MICUOCE</t>
         </is>
       </c>
       <c r="F1235">
@@ -53499,7 +53499,7 @@
       </c>
       <c r="E1236" t="inlineStr">
         <is>
-          <t>MICUOCE</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F1236">
@@ -53542,7 +53542,7 @@
       </c>
       <c r="E1237" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F1237">
@@ -53585,7 +53585,7 @@
       </c>
       <c r="E1238" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>MONOHIS</t>
         </is>
       </c>
       <c r="F1238">
@@ -53628,7 +53628,7 @@
       </c>
       <c r="E1239" t="inlineStr">
         <is>
-          <t>MONOHIS</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1239">
@@ -53671,7 +53671,7 @@
       </c>
       <c r="E1240" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F1240">
@@ -53709,12 +53709,12 @@
       </c>
       <c r="D1241" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1241" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F1241">
@@ -53747,17 +53747,17 @@
       </c>
       <c r="C1242" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D1242" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1242" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1242">
@@ -53800,7 +53800,7 @@
       </c>
       <c r="E1243" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1243">
@@ -53843,7 +53843,7 @@
       </c>
       <c r="E1244" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1244">
@@ -53886,7 +53886,7 @@
       </c>
       <c r="E1245" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F1245">
@@ -53929,7 +53929,7 @@
       </c>
       <c r="E1246" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1246">
@@ -53972,7 +53972,7 @@
       </c>
       <c r="E1247" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1247">
@@ -54015,7 +54015,7 @@
       </c>
       <c r="E1248" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F1248">
@@ -54053,12 +54053,12 @@
       </c>
       <c r="D1249" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1249" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1249">
@@ -54101,7 +54101,7 @@
       </c>
       <c r="E1250" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1250">
@@ -54144,7 +54144,7 @@
       </c>
       <c r="E1251" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1251">
@@ -54187,7 +54187,7 @@
       </c>
       <c r="E1252" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1252">
@@ -54230,7 +54230,7 @@
       </c>
       <c r="E1253" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F1253">
@@ -54273,7 +54273,7 @@
       </c>
       <c r="E1254" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SPARAUR</t>
         </is>
       </c>
       <c r="F1254">
@@ -54316,7 +54316,7 @@
       </c>
       <c r="E1255" t="inlineStr">
         <is>
-          <t>SPARAUR</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F1255">
@@ -54359,7 +54359,7 @@
       </c>
       <c r="E1256" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1256">
@@ -54402,7 +54402,7 @@
       </c>
       <c r="E1257" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1257">
@@ -54440,7 +54440,7 @@
       </c>
       <c r="D1258" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1258" t="inlineStr">
@@ -54488,7 +54488,7 @@
       </c>
       <c r="E1259" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F1259">
@@ -54526,7 +54526,7 @@
       </c>
       <c r="D1260" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1260" t="inlineStr">
@@ -54574,7 +54574,7 @@
       </c>
       <c r="E1261" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>GOBISUE</t>
         </is>
       </c>
       <c r="F1261">
@@ -54617,7 +54617,7 @@
       </c>
       <c r="E1262" t="inlineStr">
         <is>
-          <t>GOBISUE</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F1262">
@@ -54650,7 +54650,7 @@
       </c>
       <c r="C1263" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D1263" t="inlineStr">
@@ -54660,7 +54660,7 @@
       </c>
       <c r="E1263" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1263">
@@ -54703,7 +54703,7 @@
       </c>
       <c r="E1264" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1264">
@@ -54746,7 +54746,7 @@
       </c>
       <c r="E1265" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1265">
@@ -54789,7 +54789,7 @@
       </c>
       <c r="E1266" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1266">
@@ -54832,7 +54832,7 @@
       </c>
       <c r="E1267" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F1267">
@@ -54875,7 +54875,7 @@
       </c>
       <c r="E1268" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1268">
@@ -54918,7 +54918,7 @@
       </c>
       <c r="E1269" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1269">
@@ -54961,7 +54961,7 @@
       </c>
       <c r="E1270" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F1270">
@@ -55004,7 +55004,7 @@
       </c>
       <c r="E1271" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1271">
@@ -55047,7 +55047,7 @@
       </c>
       <c r="E1272" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F1272">
@@ -55085,12 +55085,12 @@
       </c>
       <c r="D1273" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1273" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>GOBIFRI</t>
         </is>
       </c>
       <c r="F1273">
@@ -55133,7 +55133,7 @@
       </c>
       <c r="E1274" t="inlineStr">
         <is>
-          <t>GOBIFRI</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1274">
@@ -55176,7 +55176,7 @@
       </c>
       <c r="E1275" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1275">
@@ -55219,7 +55219,7 @@
       </c>
       <c r="E1276" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1276">
@@ -55262,7 +55262,7 @@
       </c>
       <c r="E1277" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F1277">
@@ -55305,7 +55305,7 @@
       </c>
       <c r="E1278" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>TORPMAR</t>
         </is>
       </c>
       <c r="F1278">
@@ -55348,7 +55348,7 @@
       </c>
       <c r="E1279" t="inlineStr">
         <is>
-          <t>TORPMAR</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1279">
@@ -55391,7 +55391,7 @@
       </c>
       <c r="E1280" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1280">
@@ -55434,7 +55434,7 @@
       </c>
       <c r="E1281" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F1281">
@@ -55477,7 +55477,7 @@
       </c>
       <c r="E1282" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1282">
@@ -55520,7 +55520,7 @@
       </c>
       <c r="E1283" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F1283">
@@ -55563,7 +55563,7 @@
       </c>
       <c r="E1284" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1284">
@@ -55601,12 +55601,12 @@
       </c>
       <c r="D1285" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1285" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F1285">
@@ -55639,7 +55639,7 @@
       </c>
       <c r="C1286" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D1286" t="inlineStr">
@@ -55649,7 +55649,7 @@
       </c>
       <c r="E1286" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1286">
@@ -55692,7 +55692,7 @@
       </c>
       <c r="E1287" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1287">
@@ -55735,7 +55735,7 @@
       </c>
       <c r="E1288" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1288">
@@ -55778,7 +55778,7 @@
       </c>
       <c r="E1289" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1289">
@@ -55821,7 +55821,7 @@
       </c>
       <c r="E1290" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1290">
@@ -55864,7 +55864,7 @@
       </c>
       <c r="E1291" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="F1291">
@@ -55907,7 +55907,7 @@
       </c>
       <c r="E1292" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1292">
@@ -55945,12 +55945,12 @@
       </c>
       <c r="D1293" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1293" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1293">
@@ -55993,7 +55993,7 @@
       </c>
       <c r="E1294" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1294">
@@ -56036,7 +56036,7 @@
       </c>
       <c r="E1295" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1295">
@@ -56079,7 +56079,7 @@
       </c>
       <c r="E1296" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1296">
@@ -56122,7 +56122,7 @@
       </c>
       <c r="E1297" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1297">
@@ -56160,12 +56160,12 @@
       </c>
       <c r="D1298" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1298" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F1298">
@@ -56203,7 +56203,7 @@
       </c>
       <c r="D1299" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1299" t="inlineStr">
@@ -56241,17 +56241,17 @@
       </c>
       <c r="C1300" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D1300" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1300" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F1300">
@@ -56294,7 +56294,7 @@
       </c>
       <c r="E1301" t="inlineStr">
         <is>
-          <t>LITHMOR</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1301">
@@ -56332,12 +56332,12 @@
       </c>
       <c r="D1302" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1302" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1302">
@@ -56380,7 +56380,7 @@
       </c>
       <c r="E1303" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1303">
@@ -56423,7 +56423,7 @@
       </c>
       <c r="E1304" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>MULLSUR</t>
         </is>
       </c>
       <c r="F1304">
@@ -56466,7 +56466,7 @@
       </c>
       <c r="E1305" t="inlineStr">
         <is>
-          <t>MULLSUR</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1305">
@@ -56509,7 +56509,7 @@
       </c>
       <c r="E1306" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEIMP</t>
         </is>
       </c>
       <c r="F1306">
@@ -56547,12 +56547,12 @@
       </c>
       <c r="D1307" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1307" t="inlineStr">
         <is>
-          <t>SOLEIMP</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F1307">
@@ -56590,7 +56590,7 @@
       </c>
       <c r="D1308" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1308" t="inlineStr">
@@ -56633,12 +56633,12 @@
       </c>
       <c r="D1309" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1309" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1309">
@@ -56681,7 +56681,7 @@
       </c>
       <c r="E1310" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="F1310">
@@ -56719,7 +56719,7 @@
       </c>
       <c r="D1311" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1311" t="inlineStr">
@@ -56767,7 +56767,7 @@
       </c>
       <c r="E1312" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1312">
@@ -56810,7 +56810,7 @@
       </c>
       <c r="E1313" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1313">
@@ -56848,12 +56848,12 @@
       </c>
       <c r="D1314" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1314" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1314">
@@ -56896,7 +56896,7 @@
       </c>
       <c r="E1315" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1315">
@@ -56929,7 +56929,7 @@
       </c>
       <c r="C1316" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D1316" t="inlineStr">
@@ -56982,7 +56982,7 @@
       </c>
       <c r="E1317" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1317">
@@ -57025,7 +57025,7 @@
       </c>
       <c r="E1318" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1318">
@@ -57068,7 +57068,7 @@
       </c>
       <c r="E1319" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1319">
@@ -57111,7 +57111,7 @@
       </c>
       <c r="E1320" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F1320">
@@ -57154,7 +57154,7 @@
       </c>
       <c r="E1321" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>TRACMED</t>
         </is>
       </c>
       <c r="F1321">
@@ -57197,7 +57197,7 @@
       </c>
       <c r="E1322" t="inlineStr">
         <is>
-          <t>TRACMED</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1322">
@@ -57240,7 +57240,7 @@
       </c>
       <c r="E1323" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SPHYSPY</t>
         </is>
       </c>
       <c r="F1323">
@@ -57278,12 +57278,12 @@
       </c>
       <c r="D1324" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1324" t="inlineStr">
         <is>
-          <t>SPHYSPY</t>
+          <t>MULLSUR</t>
         </is>
       </c>
       <c r="F1324">
@@ -57326,7 +57326,7 @@
       </c>
       <c r="E1325" t="inlineStr">
         <is>
-          <t>MULLSUR</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1325">
@@ -57369,7 +57369,7 @@
       </c>
       <c r="E1326" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>LOLIVUL</t>
         </is>
       </c>
       <c r="F1326">
@@ -57412,7 +57412,7 @@
       </c>
       <c r="E1327" t="inlineStr">
         <is>
-          <t>LOLIVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1327">
@@ -57455,7 +57455,7 @@
       </c>
       <c r="E1328" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F1328">
@@ -57498,7 +57498,7 @@
       </c>
       <c r="E1329" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1329">
@@ -57541,7 +57541,7 @@
       </c>
       <c r="E1330" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F1330">
@@ -57584,7 +57584,7 @@
       </c>
       <c r="E1331" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1331">
@@ -57627,7 +57627,7 @@
       </c>
       <c r="E1332" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>CHLAGLA</t>
         </is>
       </c>
       <c r="F1332">
@@ -57665,12 +57665,12 @@
       </c>
       <c r="D1333" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1333" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F1333">
@@ -57708,7 +57708,7 @@
       </c>
       <c r="D1334" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1334" t="inlineStr">
@@ -57746,17 +57746,17 @@
       </c>
       <c r="C1335" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D1335" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1335" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1335">
@@ -57799,7 +57799,7 @@
       </c>
       <c r="E1336" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1336">
@@ -57842,7 +57842,7 @@
       </c>
       <c r="E1337" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F1337">
@@ -57885,7 +57885,7 @@
       </c>
       <c r="E1338" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F1338">
@@ -57928,7 +57928,7 @@
       </c>
       <c r="E1339" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1339">
@@ -57971,7 +57971,7 @@
       </c>
       <c r="E1340" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F1340">
@@ -58014,7 +58014,7 @@
       </c>
       <c r="E1341" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1341">
@@ -58057,7 +58057,7 @@
       </c>
       <c r="E1342" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>CHLAGLA</t>
         </is>
       </c>
       <c r="F1342">
@@ -58100,7 +58100,7 @@
       </c>
       <c r="E1343" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1343">
@@ -58143,7 +58143,7 @@
       </c>
       <c r="E1344" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1344">
@@ -58186,7 +58186,7 @@
       </c>
       <c r="E1345" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F1345">
@@ -58224,12 +58224,12 @@
       </c>
       <c r="D1346" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1346" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1346">
@@ -58272,7 +58272,7 @@
       </c>
       <c r="E1347" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F1347">
@@ -58315,7 +58315,7 @@
       </c>
       <c r="E1348" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1348">
@@ -58358,7 +58358,7 @@
       </c>
       <c r="E1349" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1349">
@@ -58401,7 +58401,7 @@
       </c>
       <c r="E1350" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>CHLAGLA</t>
         </is>
       </c>
       <c r="F1350">
@@ -58444,7 +58444,7 @@
       </c>
       <c r="E1351" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F1351">
@@ -58487,7 +58487,7 @@
       </c>
       <c r="E1352" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F1352">
@@ -58530,7 +58530,7 @@
       </c>
       <c r="E1353" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SCORPOR</t>
         </is>
       </c>
       <c r="F1353">
@@ -58573,7 +58573,7 @@
       </c>
       <c r="E1354" t="inlineStr">
         <is>
-          <t>SCORPOR</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F1354">
@@ -58616,7 +58616,7 @@
       </c>
       <c r="E1355" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1355">
@@ -58659,7 +58659,7 @@
       </c>
       <c r="E1356" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>MULLBAR</t>
         </is>
       </c>
       <c r="F1356">
@@ -58702,7 +58702,7 @@
       </c>
       <c r="E1357" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1357">
@@ -58745,7 +58745,7 @@
       </c>
       <c r="E1358" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1358">
@@ -58788,7 +58788,7 @@
       </c>
       <c r="E1359" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1359">
@@ -58831,7 +58831,7 @@
       </c>
       <c r="E1360" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F1360">
@@ -58869,12 +58869,12 @@
       </c>
       <c r="D1361" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1361" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1361">
@@ -58917,7 +58917,7 @@
       </c>
       <c r="E1362" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F1362">
@@ -58960,7 +58960,7 @@
       </c>
       <c r="E1363" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F1363">
@@ -58993,7 +58993,7 @@
       </c>
       <c r="C1364" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D1364" t="inlineStr">
@@ -59003,7 +59003,7 @@
       </c>
       <c r="E1364" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F1364">
@@ -59046,7 +59046,7 @@
       </c>
       <c r="E1365" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1365">
@@ -59089,7 +59089,7 @@
       </c>
       <c r="E1366" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1366">
@@ -59132,7 +59132,7 @@
       </c>
       <c r="E1367" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1367">
@@ -59175,7 +59175,7 @@
       </c>
       <c r="E1368" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F1368">
@@ -59218,7 +59218,7 @@
       </c>
       <c r="E1369" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F1369">
@@ -59261,7 +59261,7 @@
       </c>
       <c r="E1370" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1370">
@@ -59304,7 +59304,7 @@
       </c>
       <c r="E1371" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>GOBISUE</t>
         </is>
       </c>
       <c r="F1371">
@@ -59347,7 +59347,7 @@
       </c>
       <c r="E1372" t="inlineStr">
         <is>
-          <t>GOBISUE</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1372">
@@ -59390,7 +59390,7 @@
       </c>
       <c r="E1373" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1373">
@@ -59433,7 +59433,7 @@
       </c>
       <c r="E1374" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F1374">
@@ -59476,7 +59476,7 @@
       </c>
       <c r="E1375" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1375">
@@ -59514,12 +59514,12 @@
       </c>
       <c r="D1376" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1376" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F1376">
@@ -59562,7 +59562,7 @@
       </c>
       <c r="E1377" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1377">
@@ -59605,7 +59605,7 @@
       </c>
       <c r="E1378" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>GOBISUE</t>
         </is>
       </c>
       <c r="F1378">
@@ -59648,7 +59648,7 @@
       </c>
       <c r="E1379" t="inlineStr">
         <is>
-          <t>GOBISUE</t>
+          <t>GOBIFRI</t>
         </is>
       </c>
       <c r="F1379">
@@ -59691,7 +59691,7 @@
       </c>
       <c r="E1380" t="inlineStr">
         <is>
-          <t>GOBIFRI</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1380">
@@ -59734,7 +59734,7 @@
       </c>
       <c r="E1381" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F1381">
@@ -59777,7 +59777,7 @@
       </c>
       <c r="E1382" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1382">
@@ -59820,7 +59820,7 @@
       </c>
       <c r="E1383" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SCORSCO</t>
         </is>
       </c>
       <c r="F1383">
@@ -59863,7 +59863,7 @@
       </c>
       <c r="E1384" t="inlineStr">
         <is>
-          <t>SCORSCO</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F1384">
@@ -59906,7 +59906,7 @@
       </c>
       <c r="E1385" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1385">
@@ -59949,7 +59949,7 @@
       </c>
       <c r="E1386" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F1386">
@@ -59992,7 +59992,7 @@
       </c>
       <c r="E1387" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1387">
@@ -60035,7 +60035,7 @@
       </c>
       <c r="E1388" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F1388">
@@ -60073,12 +60073,12 @@
       </c>
       <c r="D1389" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1389" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F1389">
@@ -60121,7 +60121,7 @@
       </c>
       <c r="E1390" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F1390">
@@ -60154,7 +60154,7 @@
       </c>
       <c r="C1391" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D1391" t="inlineStr">
@@ -60164,7 +60164,7 @@
       </c>
       <c r="E1391" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1391">
@@ -60207,7 +60207,7 @@
       </c>
       <c r="E1392" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F1392">
@@ -60250,7 +60250,7 @@
       </c>
       <c r="E1393" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>MULLBAR</t>
         </is>
       </c>
       <c r="F1393">
@@ -60293,7 +60293,7 @@
       </c>
       <c r="E1394" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F1394">
@@ -60336,7 +60336,7 @@
       </c>
       <c r="E1395" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1395">
@@ -60379,7 +60379,7 @@
       </c>
       <c r="E1396" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F1396">
@@ -60422,7 +60422,7 @@
       </c>
       <c r="E1397" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>TRAHDRA</t>
         </is>
       </c>
       <c r="F1397">
@@ -60465,7 +60465,7 @@
       </c>
       <c r="E1398" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1398">
@@ -60508,7 +60508,7 @@
       </c>
       <c r="E1399" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1399">
@@ -60551,7 +60551,7 @@
       </c>
       <c r="E1400" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F1400">
@@ -60594,7 +60594,7 @@
       </c>
       <c r="E1401" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1401">
@@ -60637,7 +60637,7 @@
       </c>
       <c r="E1402" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1402">
@@ -60675,12 +60675,12 @@
       </c>
       <c r="D1403" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1403" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F1403">
@@ -60723,7 +60723,7 @@
       </c>
       <c r="E1404" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F1404">
@@ -60766,7 +60766,7 @@
       </c>
       <c r="E1405" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>MULLBAR</t>
         </is>
       </c>
       <c r="F1405">
@@ -60809,7 +60809,7 @@
       </c>
       <c r="E1406" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>LOLIVUL</t>
         </is>
       </c>
       <c r="F1406">
@@ -60852,7 +60852,7 @@
       </c>
       <c r="E1407" t="inlineStr">
         <is>
-          <t>LOLIVUL</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1407">
@@ -60895,7 +60895,7 @@
       </c>
       <c r="E1408" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F1408">
@@ -60938,7 +60938,7 @@
       </c>
       <c r="E1409" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1409">
@@ -60981,7 +60981,7 @@
       </c>
       <c r="E1410" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F1410">
@@ -61024,7 +61024,7 @@
       </c>
       <c r="E1411" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1411">
@@ -61067,7 +61067,7 @@
       </c>
       <c r="E1412" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1412">
@@ -61110,7 +61110,7 @@
       </c>
       <c r="E1413" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1413">
@@ -61153,7 +61153,7 @@
       </c>
       <c r="E1414" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F1414">
@@ -61191,7 +61191,7 @@
       </c>
       <c r="D1415" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1415" t="inlineStr">
@@ -61239,7 +61239,7 @@
       </c>
       <c r="E1416" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F1416">
@@ -61272,7 +61272,7 @@
       </c>
       <c r="C1417" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D1417" t="inlineStr">
@@ -61282,7 +61282,7 @@
       </c>
       <c r="E1417" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1417">
@@ -61325,7 +61325,7 @@
       </c>
       <c r="E1418" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F1418">
@@ -61368,7 +61368,7 @@
       </c>
       <c r="E1419" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F1419">
@@ -61411,7 +61411,7 @@
       </c>
       <c r="E1420" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1420">
@@ -61454,7 +61454,7 @@
       </c>
       <c r="E1421" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1421">
@@ -61497,7 +61497,7 @@
       </c>
       <c r="E1422" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F1422">
@@ -61535,12 +61535,12 @@
       </c>
       <c r="D1423" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1423" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1423">
@@ -61583,7 +61583,7 @@
       </c>
       <c r="E1424" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1424">
@@ -61626,7 +61626,7 @@
       </c>
       <c r="E1425" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1425">
@@ -61669,7 +61669,7 @@
       </c>
       <c r="E1426" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F1426">
@@ -61712,7 +61712,7 @@
       </c>
       <c r="E1427" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1427">
@@ -61755,7 +61755,7 @@
       </c>
       <c r="E1428" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1428">
@@ -61793,12 +61793,12 @@
       </c>
       <c r="D1429" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1429" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F1429">
@@ -61836,7 +61836,7 @@
       </c>
       <c r="D1430" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1430" t="inlineStr">
@@ -61874,7 +61874,7 @@
       </c>
       <c r="C1431" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D1431" t="inlineStr">
@@ -61884,7 +61884,7 @@
       </c>
       <c r="E1431" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F1431">
@@ -61927,7 +61927,7 @@
       </c>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1432">
@@ -61970,7 +61970,7 @@
       </c>
       <c r="E1433" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>NEPRNOR</t>
         </is>
       </c>
       <c r="F1433">
@@ -62013,7 +62013,7 @@
       </c>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>NEPRNOR</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F1434">
@@ -62056,7 +62056,7 @@
       </c>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F1435">
@@ -62099,7 +62099,7 @@
       </c>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F1436">
@@ -62142,7 +62142,7 @@
       </c>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1437">
@@ -62185,7 +62185,7 @@
       </c>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F1438">
@@ -62228,7 +62228,7 @@
       </c>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1439">
@@ -62271,7 +62271,7 @@
       </c>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SEPIELE</t>
         </is>
       </c>
       <c r="F1440">
@@ -62314,7 +62314,7 @@
       </c>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>SEPIELE</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F1441">
@@ -62357,7 +62357,7 @@
       </c>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F1442">
@@ -62400,7 +62400,7 @@
       </c>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F1443">
@@ -62438,12 +62438,12 @@
       </c>
       <c r="D1444" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F1444">
@@ -62486,7 +62486,7 @@
       </c>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F1445">
@@ -62529,7 +62529,7 @@
       </c>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>TRAHDRA</t>
         </is>
       </c>
       <c r="F1446">
@@ -62572,7 +62572,7 @@
       </c>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F1447">
@@ -62615,7 +62615,7 @@
       </c>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1448">
@@ -62658,7 +62658,7 @@
       </c>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1449">
@@ -62701,7 +62701,7 @@
       </c>
       <c r="E1450" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1450">
@@ -62744,7 +62744,7 @@
       </c>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1451">
@@ -62787,7 +62787,7 @@
       </c>
       <c r="E1452" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F1452">
@@ -62830,7 +62830,7 @@
       </c>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F1453">
@@ -62873,7 +62873,7 @@
       </c>
       <c r="E1454" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F1454">
@@ -62916,7 +62916,7 @@
       </c>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F1455">
@@ -62959,7 +62959,7 @@
       </c>
       <c r="E1456" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1456">
@@ -63002,7 +63002,7 @@
       </c>
       <c r="E1457" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>CHLAGLA</t>
         </is>
       </c>
       <c r="F1457">
@@ -63035,17 +63035,17 @@
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1458">
@@ -63088,7 +63088,7 @@
       </c>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F1459">
@@ -63131,7 +63131,7 @@
       </c>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F1460">
@@ -63174,7 +63174,7 @@
       </c>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F1461">
@@ -63217,7 +63217,7 @@
       </c>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>LITHMOR</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F1462">
@@ -63260,7 +63260,7 @@
       </c>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1463">
@@ -63303,7 +63303,7 @@
       </c>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F1464">
@@ -63346,7 +63346,7 @@
       </c>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1465">
@@ -63389,7 +63389,7 @@
       </c>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1466">
@@ -63427,12 +63427,12 @@
       </c>
       <c r="D1467" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F1467">
@@ -63475,7 +63475,7 @@
       </c>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F1468">
@@ -63518,7 +63518,7 @@
       </c>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1469">
@@ -63561,7 +63561,7 @@
       </c>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1470">
@@ -63604,7 +63604,7 @@
       </c>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F1471">
@@ -63647,7 +63647,7 @@
       </c>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1472">
@@ -63690,7 +63690,7 @@
       </c>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F1473">
@@ -63733,7 +63733,7 @@
       </c>
       <c r="E1474" t="inlineStr">
         <is>
-          <t>LITHMOR</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1474">
@@ -63776,7 +63776,7 @@
       </c>
       <c r="E1475" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F1475">
@@ -63819,7 +63819,7 @@
       </c>
       <c r="E1476" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>DALOIMB</t>
         </is>
       </c>
       <c r="F1476">
@@ -63862,7 +63862,7 @@
       </c>
       <c r="E1477" t="inlineStr">
         <is>
-          <t>DALOIMB</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F1477">
@@ -63900,7 +63900,7 @@
       </c>
       <c r="D1478" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1478" t="inlineStr">
@@ -63938,17 +63938,17 @@
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1479" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1479">
@@ -63991,7 +63991,7 @@
       </c>
       <c r="E1480" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1480">
@@ -64034,7 +64034,7 @@
       </c>
       <c r="E1481" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F1481">
@@ -64077,7 +64077,7 @@
       </c>
       <c r="E1482" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1482">
@@ -64120,7 +64120,7 @@
       </c>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SPARAUR</t>
         </is>
       </c>
       <c r="F1483">
@@ -64163,7 +64163,7 @@
       </c>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>SPARAUR</t>
+          <t>DIPLANN</t>
         </is>
       </c>
       <c r="F1484">
@@ -64206,7 +64206,7 @@
       </c>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>DIPLANN</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F1485">
@@ -64249,7 +64249,7 @@
       </c>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1486">
@@ -64292,7 +64292,7 @@
       </c>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F1487">
@@ -64335,7 +64335,7 @@
       </c>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>LITHMOR</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F1488">
@@ -64378,7 +64378,7 @@
       </c>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1489">
@@ -64416,12 +64416,12 @@
       </c>
       <c r="D1490" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1490">
@@ -64464,7 +64464,7 @@
       </c>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1491">
@@ -64507,7 +64507,7 @@
       </c>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1492">
@@ -64550,7 +64550,7 @@
       </c>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1493">
@@ -64593,7 +64593,7 @@
       </c>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SPARAUR</t>
         </is>
       </c>
       <c r="F1494">
@@ -64636,7 +64636,7 @@
       </c>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>SPARAUR</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F1495">
@@ -64679,7 +64679,7 @@
       </c>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>LITHMOR</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F1496">
@@ -64722,7 +64722,7 @@
       </c>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>DIPLANN</t>
         </is>
       </c>
       <c r="F1497">
@@ -64765,7 +64765,7 @@
       </c>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>DIPLANN</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F1498">
@@ -64808,7 +64808,7 @@
       </c>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>MULLBAR</t>
         </is>
       </c>
       <c r="F1499">
@@ -64851,7 +64851,7 @@
       </c>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F1500">
@@ -64894,7 +64894,7 @@
       </c>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>SOLEIMP</t>
         </is>
       </c>
       <c r="F1501">
@@ -64937,7 +64937,7 @@
       </c>
       <c r="E1502" t="inlineStr">
         <is>
-          <t>SOLEIMP</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F1502">
@@ -64980,7 +64980,7 @@
       </c>
       <c r="E1503" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="F1503">
@@ -65023,7 +65023,7 @@
       </c>
       <c r="E1504" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F1504">
@@ -65061,12 +65061,12 @@
       </c>
       <c r="D1505" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F1505">
@@ -65109,7 +65109,7 @@
       </c>
       <c r="E1506" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SOLEAEG</t>
         </is>
       </c>
       <c r="F1506">
@@ -65147,7 +65147,7 @@
       </c>
       <c r="D1507" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1507" t="inlineStr">
@@ -65195,7 +65195,7 @@
       </c>
       <c r="E1508" t="inlineStr">
         <is>
-          <t>SOLEAEG</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F1508">
@@ -65228,17 +65228,17 @@
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1509">
@@ -65281,7 +65281,7 @@
       </c>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1510">
@@ -65324,7 +65324,7 @@
       </c>
       <c r="E1511" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1511">
@@ -65367,7 +65367,7 @@
       </c>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F1512">
@@ -65410,7 +65410,7 @@
       </c>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1513">
@@ -65453,7 +65453,7 @@
       </c>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1514">
@@ -65496,7 +65496,7 @@
       </c>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F1515">
@@ -65539,7 +65539,7 @@
       </c>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>TRAHDRA</t>
         </is>
       </c>
       <c r="F1516">
@@ -65582,7 +65582,7 @@
       </c>
       <c r="E1517" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F1517">
@@ -65625,7 +65625,7 @@
       </c>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F1518">
@@ -65663,7 +65663,7 @@
       </c>
       <c r="D1519" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1519" t="inlineStr">
@@ -65711,7 +65711,7 @@
       </c>
       <c r="E1520" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1520">
@@ -65754,7 +65754,7 @@
       </c>
       <c r="E1521" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F1521">
@@ -65797,7 +65797,7 @@
       </c>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F1522">
@@ -65840,7 +65840,7 @@
       </c>
       <c r="E1523" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1523">
@@ -65883,7 +65883,7 @@
       </c>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1524">
@@ -65926,7 +65926,7 @@
       </c>
       <c r="E1525" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F1525">
@@ -65969,7 +65969,7 @@
       </c>
       <c r="E1526" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1526">
@@ -66012,7 +66012,7 @@
       </c>
       <c r="E1527" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1527">
@@ -66055,7 +66055,7 @@
       </c>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1528">
@@ -66093,12 +66093,12 @@
       </c>
       <c r="D1529" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1529" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F1529">
@@ -66131,7 +66131,7 @@
       </c>
       <c r="C1530" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D1530" t="inlineStr">
@@ -66141,7 +66141,7 @@
       </c>
       <c r="E1530" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F1530">
@@ -66184,7 +66184,7 @@
       </c>
       <c r="E1531" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F1531">
@@ -66227,7 +66227,7 @@
       </c>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1532">
@@ -66270,7 +66270,7 @@
       </c>
       <c r="E1533" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1533">
@@ -66313,7 +66313,7 @@
       </c>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1534">
@@ -66356,7 +66356,7 @@
       </c>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1535">
@@ -66399,7 +66399,7 @@
       </c>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1536">
@@ -66442,7 +66442,7 @@
       </c>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1537">
@@ -66480,12 +66480,12 @@
       </c>
       <c r="D1538" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F1538">
@@ -66528,7 +66528,7 @@
       </c>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>LITHMOR</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F1539">
@@ -66571,7 +66571,7 @@
       </c>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1540">
@@ -66614,7 +66614,7 @@
       </c>
       <c r="E1541" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1541">
@@ -66657,7 +66657,7 @@
       </c>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1542">
@@ -66695,12 +66695,12 @@
       </c>
       <c r="D1543" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1543" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F1543">
@@ -66733,7 +66733,7 @@
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr">
@@ -66743,7 +66743,7 @@
       </c>
       <c r="E1544" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="F1544">
@@ -66786,7 +66786,7 @@
       </c>
       <c r="E1545" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>MULLBAR</t>
         </is>
       </c>
       <c r="F1545">
@@ -66829,7 +66829,7 @@
       </c>
       <c r="E1546" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F1546">
@@ -66872,7 +66872,7 @@
       </c>
       <c r="E1547" t="inlineStr">
         <is>
-          <t>LITHMOR</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F1547">
@@ -66915,7 +66915,7 @@
       </c>
       <c r="E1548" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SOLEIMP</t>
         </is>
       </c>
       <c r="F1548">
@@ -66958,7 +66958,7 @@
       </c>
       <c r="E1549" t="inlineStr">
         <is>
-          <t>SOLEIMP</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1549">
@@ -67001,7 +67001,7 @@
       </c>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1550">
@@ -67044,7 +67044,7 @@
       </c>
       <c r="E1551" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1551">
@@ -67087,7 +67087,7 @@
       </c>
       <c r="E1552" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1552">
@@ -67130,7 +67130,7 @@
       </c>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F1553">
@@ -67173,7 +67173,7 @@
       </c>
       <c r="E1554" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F1554">
@@ -67211,12 +67211,12 @@
       </c>
       <c r="D1555" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1555" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1555">
@@ -67259,7 +67259,7 @@
       </c>
       <c r="E1556" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1556">
@@ -67302,7 +67302,7 @@
       </c>
       <c r="E1557" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F1557">
@@ -67345,7 +67345,7 @@
       </c>
       <c r="E1558" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SPARAUR</t>
         </is>
       </c>
       <c r="F1558">
@@ -67388,7 +67388,7 @@
       </c>
       <c r="E1559" t="inlineStr">
         <is>
-          <t>SPARAUR</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F1559">
@@ -67431,7 +67431,7 @@
       </c>
       <c r="E1560" t="inlineStr">
         <is>
-          <t>LITHMOR</t>
+          <t>PENAZTC</t>
         </is>
       </c>
       <c r="F1560">
@@ -67474,7 +67474,7 @@
       </c>
       <c r="E1561" t="inlineStr">
         <is>
-          <t>PENAZTC</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1561">
@@ -67517,7 +67517,7 @@
       </c>
       <c r="E1562" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F1562">
@@ -67560,7 +67560,7 @@
       </c>
       <c r="E1563" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>GADUMER</t>
         </is>
       </c>
       <c r="F1563">
@@ -67603,7 +67603,7 @@
       </c>
       <c r="E1564" t="inlineStr">
         <is>
-          <t>GADUMER</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="F1564">
@@ -67641,12 +67641,12 @@
       </c>
       <c r="D1565" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>SOLEAEG</t>
         </is>
       </c>
       <c r="F1565">
@@ -67684,7 +67684,7 @@
       </c>
       <c r="D1566" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1566" t="inlineStr">
@@ -67722,17 +67722,17 @@
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>SOLEAEG</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1567">
@@ -67775,7 +67775,7 @@
       </c>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F1568">
@@ -67818,7 +67818,7 @@
       </c>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F1569">
@@ -67861,7 +67861,7 @@
       </c>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1570">
@@ -67904,7 +67904,7 @@
       </c>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1571">
@@ -67947,7 +67947,7 @@
       </c>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F1572">
@@ -67990,7 +67990,7 @@
       </c>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>NEPRNOR</t>
         </is>
       </c>
       <c r="F1573">
@@ -68033,7 +68033,7 @@
       </c>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>NEPRNOR</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1574">
@@ -68076,7 +68076,7 @@
       </c>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F1575">
@@ -68119,7 +68119,7 @@
       </c>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="F1576">
@@ -68162,7 +68162,7 @@
       </c>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1577">
@@ -68200,12 +68200,12 @@
       </c>
       <c r="D1578" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F1578">
@@ -68248,7 +68248,7 @@
       </c>
       <c r="E1579" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F1579">
@@ -68291,7 +68291,7 @@
       </c>
       <c r="E1580" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F1580">
@@ -68334,7 +68334,7 @@
       </c>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F1581">
@@ -68377,7 +68377,7 @@
       </c>
       <c r="E1582" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F1582">
@@ -68420,7 +68420,7 @@
       </c>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F1583">
@@ -68463,7 +68463,7 @@
       </c>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F1584">
@@ -68506,7 +68506,7 @@
       </c>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F1585">
@@ -68549,7 +68549,7 @@
       </c>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>NEPRNOR</t>
         </is>
       </c>
       <c r="F1586">
@@ -68592,7 +68592,7 @@
       </c>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>NEPRNOR</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F1587">
@@ -68635,7 +68635,7 @@
       </c>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F1588">
@@ -68673,7 +68673,7 @@
       </c>
       <c r="D1589" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1589" t="inlineStr">
@@ -68716,12 +68716,12 @@
       </c>
       <c r="D1590" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F1590">
@@ -68759,7 +68759,7 @@
       </c>
       <c r="D1591" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E1591" t="inlineStr">
@@ -68807,7 +68807,7 @@
       </c>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>GOBISUE</t>
         </is>
       </c>
       <c r="F1592">
@@ -68850,7 +68850,7 @@
       </c>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>GOBISUE</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F1593">
@@ -68865,49 +68865,6 @@
         </is>
       </c>
       <c r="I1593" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="1594">
-      <c r="A1594" t="inlineStr">
-        <is>
-          <t>SOLEMON2025</t>
-        </is>
-      </c>
-      <c r="B1594" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C1594" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D1594" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E1594" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F1594">
-        <v>1</v>
-      </c>
-      <c r="G1594">
-        <v>-1</v>
-      </c>
-      <c r="H1594" t="inlineStr">
-        <is>
-          <t>SIMRANDO</t>
-        </is>
-      </c>
-      <c r="I1594" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
